--- a/config/Profiel.xlsx
+++ b/config/Profiel.xlsx
@@ -234,9 +234,6 @@
     <t>titel</t>
   </si>
   <si>
-    <t>taal</t>
-  </si>
-  <si>
     <t>wijzigingsdatum</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>http://www.w3.org/ns/dcat#{propertyname}</t>
+  </si>
+  <si>
+    <t>taal (language)</t>
   </si>
 </sst>
 </file>
@@ -837,10 +837,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,10 +865,10 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1127,10 +1127,10 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1379,7 +1379,7 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1408,39 +1408,39 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
         <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -1460,19 +1460,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>

--- a/config/Profiel.xlsx
+++ b/config/Profiel.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
     <sheet name="Properties" sheetId="2" r:id="rId2"/>
     <sheet name="Classes" sheetId="3" r:id="rId3"/>
     <sheet name="Predicates" sheetId="4" r:id="rId4"/>
+    <sheet name="Vocabularies" sheetId="5" r:id="rId5"/>
+    <sheet name="Stereotypes" sheetId="6" r:id="rId6"/>
+    <sheet name="Waardelijsten" sheetId="8" r:id="rId7"/>
+    <sheet name="Waarden" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="330">
   <si>
     <t>uri schema</t>
   </si>
@@ -99,12 +103,6 @@
     <t>dct</t>
   </si>
   <si>
-    <t>PropertyShape</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/shacl#{class}</t>
-  </si>
-  <si>
     <t>sh</t>
   </si>
   <si>
@@ -123,18 +121,12 @@
     <t>propertyname</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>Predicates</t>
   </si>
   <si>
-    <t>NodeShape</t>
-  </si>
-  <si>
     <t>http://linkeddata.ordina.nl/profiel#{class}_{predicate}</t>
   </si>
   <si>
@@ -186,9 +178,6 @@
     <t>rangevoc</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -198,30 +187,15 @@
     <t>http://purl.org/dc/terms/{range}</t>
   </si>
   <si>
-    <t>mincard</t>
-  </si>
-  <si>
-    <t>maxcard</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>UpdateModificationDate</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
     <t>dateTime</t>
   </si>
   <si>
-    <t>nl-label</t>
-  </si>
-  <si>
     <t>nl</t>
   </si>
   <si>
@@ -237,21 +211,6 @@
     <t>wijzigingsdatum</t>
   </si>
   <si>
-    <t>minCount</t>
-  </si>
-  <si>
-    <t>maxCount</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>Aanmelder</t>
-  </si>
-  <si>
     <t>contactPoint</t>
   </si>
   <si>
@@ -292,13 +251,778 @@
   </si>
   <si>
     <t>taal (language)</t>
+  </si>
+  <si>
+    <t>label_nl</t>
+  </si>
+  <si>
+    <t>cardinality</t>
+  </si>
+  <si>
+    <t>1..n</t>
+  </si>
+  <si>
+    <t>0..n</t>
+  </si>
+  <si>
+    <t>1..1</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Distributie</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Catalogue Record</t>
+  </si>
+  <si>
+    <t>CatalogRecord</t>
+  </si>
+  <si>
+    <t>Catalogusrecord</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>Organisatie</t>
+  </si>
+  <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
+    <t>Catalogus</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{classname}</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Category Scheme</t>
+  </si>
+  <si>
+    <t>ConceptScheme</t>
+  </si>
+  <si>
+    <t>Rubricering</t>
+  </si>
+  <si>
+    <t>LicenseDocument</t>
+  </si>
+  <si>
+    <t>Licentie</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Frequentie</t>
+  </si>
+  <si>
+    <t>Linguistic System</t>
+  </si>
+  <si>
+    <t>Taal</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>MediaTypeOrExtent</t>
+  </si>
+  <si>
+    <t>Mediatype</t>
+  </si>
+  <si>
+    <t>Publisher Type</t>
+  </si>
+  <si>
+    <t>Soort verstrekker</t>
+  </si>
+  <si>
+    <t>Rights Statement</t>
+  </si>
+  <si>
+    <t>RightsStatement</t>
+  </si>
+  <si>
+    <t>Openbaarheidsniveau</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Licence Document</t>
+  </si>
+  <si>
+    <t>Licence Type</t>
+  </si>
+  <si>
+    <t>Licentietype</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>groep</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>spdx</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>adms</t>
+  </si>
+  <si>
+    <t>Period Of Time</t>
+  </si>
+  <si>
+    <t>Media Type Or Extent</t>
+  </si>
+  <si>
+    <t>PeriodOfTime</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>http://spdx.org/rdf/terms#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/adms#</t>
+  </si>
+  <si>
+    <t>Vocabularies</t>
+  </si>
+  <si>
+    <t>http://linkeddata.ordina.nl/prefix#{prefix}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#NodeShape</t>
+  </si>
+  <si>
+    <t>{class}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#PropertyShape</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#Ontology</t>
+  </si>
+  <si>
+    <t>http://spdx.org/rdf/terms#{classname}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/adms#{classname}</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Uitwisselgegeven</t>
+  </si>
+  <si>
+    <t>Referentiegegeven</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>stereotype</t>
+  </si>
+  <si>
+    <t>Stereotypes</t>
+  </si>
+  <si>
+    <t>http://bp4mc2.org/def/shacl-xl#Stereotype</t>
+  </si>
+  <si>
+    <t>http://bp4mc2.org/def/shacl-xl#{property}</t>
+  </si>
+  <si>
+    <t>shxl</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>update modification date</t>
+  </si>
+  <si>
+    <t>contact point</t>
+  </si>
+  <si>
+    <t>aanmelder</t>
+  </si>
+  <si>
+    <t>dataset distribution</t>
+  </si>
+  <si>
+    <t>distributie</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>keyword tag</t>
+  </si>
+  <si>
+    <t>trefwoord</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>verstrekker</t>
+  </si>
+  <si>
+    <t>theme category</t>
+  </si>
+  <si>
+    <t>thema</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>landing page</t>
+  </si>
+  <si>
+    <t>landingspagina</t>
+  </si>
+  <si>
+    <t>landingPage</t>
+  </si>
+  <si>
+    <t>spatial geographical coverage</t>
+  </si>
+  <si>
+    <t>locatie</t>
+  </si>
+  <si>
+    <t>spatial</t>
+  </si>
+  <si>
+    <t>temporal coverage</t>
+  </si>
+  <si>
+    <t>dekking in tijd</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>access rights</t>
+  </si>
+  <si>
+    <t>openbaarheid</t>
+  </si>
+  <si>
+    <t>accessRights</t>
+  </si>
+  <si>
+    <t>conforms to</t>
+  </si>
+  <si>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>conformsTo</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>documentatie</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>wijzigingsfrequentie</t>
+  </si>
+  <si>
+    <t>accruelPeriodicity</t>
+  </si>
+  <si>
+    <t>http://bp4mc2.org/def/shacl-xl#{stereotype}</t>
+  </si>
+  <si>
+    <t>http://bp4mc2.org/def/shacl-xl#{groep}</t>
+  </si>
+  <si>
+    <t>has version</t>
+  </si>
+  <si>
+    <t>heeft versie</t>
+  </si>
+  <si>
+    <t>hasVersion</t>
+  </si>
+  <si>
+    <t>is version of</t>
+  </si>
+  <si>
+    <t>is versie van</t>
+  </si>
+  <si>
+    <t>isVersionOf</t>
+  </si>
+  <si>
+    <t>other identifier</t>
+  </si>
+  <si>
+    <t>alternatieve identificatie</t>
+  </si>
+  <si>
+    <t>provenance</t>
+  </si>
+  <si>
+    <t>related resource</t>
+  </si>
+  <si>
+    <t>release date</t>
+  </si>
+  <si>
+    <t>dct:issued</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>version notes</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>versionInfo</t>
+  </si>
+  <si>
+    <t>versionNotes</t>
+  </si>
+  <si>
+    <t>totstandkoming</t>
+  </si>
+  <si>
+    <t>heeft relatie met</t>
+  </si>
+  <si>
+    <t>uitgiftedatum</t>
+  </si>
+  <si>
+    <t>voorbeeld</t>
+  </si>
+  <si>
+    <t>versie</t>
+  </si>
+  <si>
+    <t>versietoelichting</t>
+  </si>
+  <si>
+    <t>ProvenanceStatement</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>access URL</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>byte size</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>download URL</t>
+  </si>
+  <si>
+    <t>linked schemas</t>
+  </si>
+  <si>
+    <t>media type</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>accessURL</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>byteSize</t>
+  </si>
+  <si>
+    <t>downloadURL</t>
+  </si>
+  <si>
+    <t>mediaType</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>toegangs-URL</t>
+  </si>
+  <si>
+    <t>formaat</t>
+  </si>
+  <si>
+    <t>licentie</t>
+  </si>
+  <si>
+    <t>grootte</t>
+  </si>
+  <si>
+    <t>download-URL</t>
+  </si>
+  <si>
+    <t>taal</t>
+  </si>
+  <si>
+    <t>voldoet aan</t>
+  </si>
+  <si>
+    <t>rechten</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>brongegevens</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#{range}</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{propertyname}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/adms#{propertyname}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#{propertyname}</t>
+  </si>
+  <si>
+    <t>http://spdx.org/rdf/terms#{propertyname}</t>
+  </si>
+  <si>
+    <t>primary topic</t>
+  </si>
+  <si>
+    <t>application profile</t>
+  </si>
+  <si>
+    <t>change type</t>
+  </si>
+  <si>
+    <t>listing date</t>
+  </si>
+  <si>
+    <t>source metadata</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>md-wijzigingsdatum</t>
+  </si>
+  <si>
+    <t>is conform</t>
+  </si>
+  <si>
+    <t>md-soort wijziging</t>
+  </si>
+  <si>
+    <t>md-uitgiftedatum</t>
+  </si>
+  <si>
+    <t>md-omschrijving</t>
+  </si>
+  <si>
+    <t>bron</t>
+  </si>
+  <si>
+    <t>md-titel</t>
+  </si>
+  <si>
+    <t>primaryTopic</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>themes</t>
+  </si>
+  <si>
+    <t>has part</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>spatial geographic</t>
+  </si>
+  <si>
+    <t>beheerder</t>
+  </si>
+  <si>
+    <t>onderwerpindeling</t>
+  </si>
+  <si>
+    <t>heeft onderdeel</t>
+  </si>
+  <si>
+    <t>is onderdeel van</t>
+  </si>
+  <si>
+    <t>prefLabel</t>
+  </si>
+  <si>
+    <t>preferred label</t>
+  </si>
+  <si>
+    <t>licence type</t>
+  </si>
+  <si>
+    <t>licentietype</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>anyURI</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>start date time</t>
+  </si>
+  <si>
+    <t>startdatum</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>end date time</t>
+  </si>
+  <si>
+    <t>einddatum</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/adms#{range}</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{range}</t>
+  </si>
+  <si>
+    <t>http://schema.org/{propertyname}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#{propertyname}</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#{range}</t>
+  </si>
+  <si>
+    <t>themeTaxonomy</t>
+  </si>
+  <si>
+    <t>hasPart</t>
+  </si>
+  <si>
+    <t>isPartOf</t>
+  </si>
+  <si>
+    <t>waardelijst</t>
+  </si>
+  <si>
+    <t>waarde</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/status/1.0</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>UnderDevelopment</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>Waarden</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#Concept</t>
+  </si>
+  <si>
+    <t>waardelijst-condition</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/status/{waarde}</t>
+  </si>
+  <si>
+    <t>Under development</t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>Afgerond</t>
+  </si>
+  <si>
+    <t>In ontwikkeling</t>
+  </si>
+  <si>
+    <t>Niet langer ondersteund</t>
+  </si>
+  <si>
+    <t>Teruggetrokken</t>
+  </si>
+  <si>
+    <t>inScheme</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>http://linkeddata.ordina.nl/waardelijst#{waardelijst}</t>
+  </si>
+  <si>
+    <t>Waardelijsten</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>{url}</t>
+  </si>
+  <si>
+    <t>seeAlso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +1033,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,15 +1070,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
+    <cellStyle name="Standaard 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,23 +1396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,10 +1430,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -686,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -697,256 +1455,558 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" t="s">
         <v>88</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -957,15 +2017,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -986,168 +2046,376 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -1157,50 +2425,407 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1210,281 +2835,2670 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>224</v>
+      </c>
+      <c r="J64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>224</v>
+      </c>
+      <c r="J66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" t="s">
+        <v>305</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>276</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+      <c r="J71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>103</v>
+      </c>
+      <c r="J73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>288</v>
+      </c>
+      <c r="J74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" t="s">
+        <v>293</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" t="s">
+        <v>296</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>83</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
